--- a/translocation/Tissue_Translocation.xlsx
+++ b/translocation/Tissue_Translocation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCoffin\Documents\OFFLINE\DATA\R\GitHub\aq_mp_tox_modelling\translocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/scott_coffin_waterboards_ca_gov/Documents/Documents/OFFLINE/DATA/R/GitHub/aq_mp_tox_modelling/translocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B44308C-3750-4F80-A341-1A182EA7F542}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="obs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">obs!$A$1:$M$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">obs!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="204">
   <si>
     <t>Paper</t>
   </si>
@@ -619,6 +619,36 @@
   </si>
   <si>
     <t>unreported</t>
+  </si>
+  <si>
+    <t>Al-Sid-Cheikh, M. et al 2018</t>
+  </si>
+  <si>
+    <t>10.1021/acs.est.8b05266</t>
+  </si>
+  <si>
+    <t>Pecten maximus</t>
+  </si>
+  <si>
+    <t>Mollusk</t>
+  </si>
+  <si>
+    <t>Pass_all_red_criteria</t>
+  </si>
+  <si>
+    <t>unscored</t>
+  </si>
+  <si>
+    <t>Uptake_kinetic_constant(mL/g-h)</t>
+  </si>
+  <si>
+    <t>BCF(mL/g)</t>
+  </si>
+  <si>
+    <t>Whole Body</t>
+  </si>
+  <si>
+    <t>high-quality study. Used autoradiogrpahy</t>
   </si>
 </sst>
 </file>
@@ -648,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -671,11 +701,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -684,6 +725,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,12 +1048,12 @@
       <selection activeCell="C6" sqref="A1:M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="28.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1133,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1172,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1251,7 +1295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1334,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1329,7 +1373,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1412,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1409,7 +1453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -1448,7 +1492,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1487,7 +1531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -1528,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -1569,7 +1613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
@@ -1610,7 +1654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -1649,7 +1693,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1690,7 +1734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1729,7 +1773,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -1770,7 +1814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
@@ -1809,7 +1853,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>120</v>
       </c>
@@ -1848,7 +1892,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -1887,7 +1931,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -1926,7 +1970,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
@@ -1965,7 +2009,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2002,7 +2046,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -2043,7 +2087,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="200.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
@@ -2084,7 +2128,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -2125,7 +2169,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
@@ -2166,7 +2210,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -2207,7 +2251,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
@@ -2248,7 +2292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>167</v>
       </c>
@@ -2289,7 +2333,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>173</v>
       </c>
@@ -2330,7 +2374,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>179</v>
       </c>
@@ -2378,19 +2422,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31420773-59EF-42E6-B6ED-0494589C11AD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2430,13 +2473,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2448,34 +2500,45 @@
         <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2487,52 +2550,63 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3">
+        <v>6.5</v>
+      </c>
+      <c r="P3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -2544,34 +2618,34 @@
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -2583,11 +2657,11 @@
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2678,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -2626,7 +2700,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>28</v>
@@ -2665,7 +2739,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2682,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>28</v>
@@ -2704,210 +2778,208 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5.3000000000000001E-6</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>300</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.3000000000000001E-6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
         <v>9.6</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2918,13 +2990,13 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>220</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>49</v>
@@ -2933,145 +3005,145 @@
         <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2">
+        <v>220</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f>250-180</f>
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="171.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3083,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>49</v>
@@ -3092,81 +3164,81 @@
         <v>29</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2">
-        <v>63</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
@@ -3178,77 +3250,75 @@
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>29</v>
@@ -3260,21 +3330,21 @@
         <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -3286,10 +3356,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>29</v>
@@ -3301,21 +3371,21 @@
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -3327,34 +3397,36 @@
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -3366,13 +3438,13 @@
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>36</v>
@@ -3381,34 +3453,36 @@
         <v>22</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>44</v>
@@ -3420,94 +3494,94 @@
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -3524,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>111</v>
@@ -3546,7 +3620,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -3563,7 +3637,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>111</v>
@@ -3585,7 +3659,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -3602,7 +3676,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>111</v>
@@ -3611,7 +3685,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>113</v>
@@ -3624,126 +3698,126 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="228.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="2">
-        <v>111</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -3754,13 +3828,13 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F35" s="2">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>123</v>
@@ -3775,14 +3849,14 @@
         <v>124</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -3793,13 +3867,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="2">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>123</v>
@@ -3808,20 +3882,20 @@
         <v>29</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -3832,13 +3906,13 @@
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F37" s="2">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>123</v>
@@ -3853,14 +3927,14 @@
         <v>124</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -3871,13 +3945,13 @@
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F38" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>123</v>
@@ -3886,38 +3960,40 @@
         <v>29</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="200.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F39" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>29</v>
@@ -3926,60 +4002,54 @@
         <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="200.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F40" s="2">
-        <v>0.05</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="200.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
@@ -3996,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -4005,7 +4075,7 @@
         <v>29</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>22</v>
@@ -4020,7 +4090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="200.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -4037,7 +4107,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>49</v>
@@ -4046,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>22</v>
@@ -4061,12 +4131,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="200.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -4078,241 +4148,241 @@
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2">
         <v>0.18</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="I48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="2">
-        <v>100</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="2">
-        <v>100</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>157</v>
@@ -4321,7 +4391,7 @@
         <v>190</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2">
         <v>100</v>
@@ -4339,39 +4409,39 @@
         <v>22</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>191</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>36</v>
@@ -4380,62 +4450,141 @@
         <v>22</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="2">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="2">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F53" s="2">
         <v>28</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M51" xr:uid="{48E43857-8E7E-4CB3-AFCC-0B1DFD490E4B}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M53" xr:uid="{48E43857-8E7E-4CB3-AFCC-0B1DFD490E4B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/translocation/Tissue_Translocation.xlsx
+++ b/translocation/Tissue_Translocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/scott_coffin_waterboards_ca_gov/Documents/Documents/OFFLINE/DATA/R/GitHub/aq_mp_tox_modelling/translocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B44308C-3750-4F80-A341-1A182EA7F542}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B57C6896-80F0-4DC1-A29A-1570C0FC3951}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
+    <workbookView minimized="1" xWindow="47196" yWindow="-1704" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="206">
   <si>
     <t>Paper</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>high-quality study. Used autoradiogrpahy</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>10.1021/es302332w</t>
   </si>
 </sst>
 </file>
@@ -2422,10 +2428,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31420773-59EF-42E6-B6ED-0494589C11AD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>188</v>
@@ -2483,7 +2490,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="83.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="83.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2629,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2668,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2700,7 +2707,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2739,7 +2746,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2778,7 +2785,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2817,7 +2824,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2863,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -2938,7 +2945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3059,7 +3066,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +3105,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -3138,7 +3145,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="166.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3218,7 +3225,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3264,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -3298,7 +3305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -3421,7 +3428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -3501,7 +3508,7 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -3581,7 +3588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -3620,7 +3627,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -3659,7 +3666,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -3698,7 +3705,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -3737,7 +3744,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -3776,7 +3783,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="221.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -3856,7 +3863,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -3895,7 +3902,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -3934,7 +3941,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -3973,7 +3980,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -4012,7 +4019,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -4049,7 +4056,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -4131,7 +4138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4172,7 +4179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -4336,7 +4343,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>167</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="166.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -4583,7 +4590,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M53" xr:uid="{48E43857-8E7E-4CB3-AFCC-0B1DFD490E4B}"/>
+  <autoFilter ref="A1:M53" xr:uid="{48E43857-8E7E-4CB3-AFCC-0B1DFD490E4B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="von Moos et al, 2012"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/translocation/Tissue_Translocation.xlsx
+++ b/translocation/Tissue_Translocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/scott_coffin_waterboards_ca_gov/Documents/Documents/OFFLINE/DATA/R/GitHub/aq_mp_tox_modelling/translocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B57C6896-80F0-4DC1-A29A-1570C0FC3951}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{65944F4C-4953-477A-906A-7EA2EEA91BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{B3A8F9C6-522D-4AF5-95E8-5E128D79B851}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="47196" yWindow="-1704" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
+    <workbookView minimized="1" xWindow="21720" yWindow="5415" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{3DBC3045-552C-4593-B345-3852FA066EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,6 +732,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2428,11 +2432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31420773-59EF-42E6-B6ED-0494589C11AD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,45 +2493,45 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="83.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2">
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.15</v>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
         <v>199</v>
@@ -2540,45 +2543,45 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="83.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2">
-        <v>2.4E-2</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.3</v>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
         <v>199</v>
@@ -2590,51 +2593,53 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2646,311 +2651,322 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5">
+        <f>250-180</f>
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="221.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="2">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="G12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
-        <v>300</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5.3000000000000001E-6</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -2962,13 +2978,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>9.6</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
@@ -2977,16 +2993,16 @@
         <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3027,7 +3043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3066,7 +3082,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -3105,12 +3121,12 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3119,172 +3135,175 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17">
-        <f>250-180</f>
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="166.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>29</v>
@@ -3301,57 +3320,53 @@
       <c r="L21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -3360,13 +3375,13 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2">
-        <v>0.1</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>29</v>
@@ -3375,106 +3390,98 @@
         <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -3486,13 +3493,13 @@
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>36</v>
@@ -3501,270 +3508,270 @@
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2">
+        <v>150</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2">
+        <v>300</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="2">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2">
-        <v>80</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
         <v>0.5</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="G32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>29</v>
@@ -3773,22 +3780,22 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="221.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -3800,7 +3807,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>49</v>
@@ -3809,42 +3816,42 @@
         <v>29</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>29</v>
@@ -3853,230 +3860,238 @@
         <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="2">
-        <v>23</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="2">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="2">
-        <v>54</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="2">
-        <v>87</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>29</v>
@@ -4085,39 +4100,37 @@
         <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>29</v>
@@ -4126,80 +4139,76 @@
         <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>29</v>
@@ -4208,24 +4217,22 @@
         <v>21</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="193.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -4237,10 +4244,10 @@
         <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>29</v>
@@ -4252,103 +4259,99 @@
         <v>22</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="180" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="2">
-        <v>0.18</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -4360,13 +4363,13 @@
         <v>17</v>
       </c>
       <c r="F48" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>36</v>
@@ -4375,36 +4378,36 @@
         <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>29</v>
@@ -4416,121 +4419,121 @@
         <v>22</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="97.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="124.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>36</v>
@@ -4539,36 +4542,36 @@
         <v>22</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="166.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>29</v>
@@ -4576,26 +4579,24 @@
       <c r="I53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>22</v>
+      <c r="J53" s="1">
+        <v>5.3000000000000001E-6</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M53" xr:uid="{48E43857-8E7E-4CB3-AFCC-0B1DFD490E4B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="von Moos et al, 2012"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
